--- a/mrz.xlsx
+++ b/mrz.xlsx
@@ -469,7 +469,7 @@
     <t>Uruguay-passport-mini.jpg</t>
   </si>
   <si>
-    <t>P&lt;HUNGVOZDEVA&lt;&lt;IRINA&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;
+    <t>P&lt;HUNGVOZDEVA&lt;&lt;IRINA&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;
 BD85403962HUN8509022F2311078&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;06</t>
   </si>
   <si>
@@ -498,11 +498,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,30 +533,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,28 +543,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,30 +564,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -647,11 +579,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -661,6 +624,36 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -671,13 +664,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,169 +838,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,9 +860,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,8 +872,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -913,22 +908,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -948,163 +938,166 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1435,8 +1428,8 @@
   <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C27" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>

--- a/mrz.xlsx
+++ b/mrz.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14685" windowHeight="7860"/>
+    <workbookView windowWidth="15360" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="151">
   <si>
     <t>Category</t>
   </si>
@@ -162,6 +162,19 @@
   </si>
   <si>
     <t>https://i.pinimg.com/564x/9e/4e/9a/9e4e9ab49713b37ad055e460bfc1f434.jpg</t>
+  </si>
+  <si>
+    <t>Japanese-passport.jpg</t>
+  </si>
+  <si>
+    <t>P&lt;JPNTSUJI&lt;&lt;HARUNA&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;
+MJ06341542JPN0012164F2501316&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;02</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.com/pin/663647695103952393/</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/b7/49/cf/b749cf2999255d65666e26f967fb9d3b.jpg</t>
   </si>
   <si>
     <t>Synthetic</t>
@@ -495,11 +508,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -519,117 +532,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -648,12 +555,118 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -664,187 +677,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,12 +871,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -873,7 +899,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,16 +920,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -923,30 +949,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -955,207 +957,221 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1426,10 +1442,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C27" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1628,29 +1644,26 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" ht="28.5" spans="1:6">
+    <row r="12" ht="28.5" spans="1:5">
       <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
         <v>46</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>49</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13" ht="28.5" spans="1:6">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
         <v>51</v>
@@ -1658,7 +1671,7 @@
       <c r="C13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>53</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -1670,7 +1683,7 @@
     </row>
     <row r="14" ht="28.5" spans="1:6">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -1678,10 +1691,10 @@
       <c r="C14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F14" t="s">
@@ -1690,7 +1703,7 @@
     </row>
     <row r="15" ht="28.5" spans="1:6">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
         <v>59</v>
@@ -1710,7 +1723,7 @@
     </row>
     <row r="16" ht="28.5" spans="1:6">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
         <v>63</v>
@@ -1730,7 +1743,7 @@
     </row>
     <row r="17" ht="28.5" spans="1:6">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -1750,7 +1763,7 @@
     </row>
     <row r="18" ht="28.5" spans="1:6">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -1770,7 +1783,7 @@
     </row>
     <row r="19" ht="28.5" spans="1:6">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
         <v>75</v>
@@ -1790,7 +1803,7 @@
     </row>
     <row r="20" ht="28.5" spans="1:6">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
         <v>79</v>
@@ -1810,7 +1823,7 @@
     </row>
     <row r="21" ht="28.5" spans="1:6">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
         <v>83</v>
@@ -1830,7 +1843,7 @@
     </row>
     <row r="22" ht="28.5" spans="1:6">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
         <v>87</v>
@@ -1841,7 +1854,7 @@
       <c r="D22" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" t="s">
         <v>90</v>
       </c>
       <c r="F22" t="s">
@@ -1850,7 +1863,7 @@
     </row>
     <row r="23" ht="28.5" spans="1:6">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
         <v>91</v>
@@ -1861,7 +1874,7 @@
       <c r="D23" t="s">
         <v>93</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F23" t="s">
@@ -1870,7 +1883,7 @@
     </row>
     <row r="24" ht="28.5" spans="1:6">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
         <v>95</v>
@@ -1890,7 +1903,7 @@
     </row>
     <row r="25" ht="28.5" spans="1:6">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
         <v>99</v>
@@ -1910,7 +1923,7 @@
     </row>
     <row r="26" ht="28.5" spans="1:6">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
         <v>103</v>
@@ -1930,7 +1943,7 @@
     </row>
     <row r="27" ht="28.5" spans="1:6">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>107</v>
@@ -1950,7 +1963,7 @@
     </row>
     <row r="28" ht="28.5" spans="1:6">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
         <v>111</v>
@@ -1970,7 +1983,7 @@
     </row>
     <row r="29" ht="28.5" spans="1:6">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
         <v>115</v>
@@ -1990,7 +2003,7 @@
     </row>
     <row r="30" ht="28.5" spans="1:6">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
         <v>119</v>
@@ -2010,7 +2023,7 @@
     </row>
     <row r="31" ht="28.5" spans="1:6">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
         <v>123</v>
@@ -2030,7 +2043,7 @@
     </row>
     <row r="32" ht="28.5" spans="1:6">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
         <v>127</v>
@@ -2050,7 +2063,7 @@
     </row>
     <row r="33" ht="28.5" spans="1:6">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
         <v>131</v>
@@ -2070,7 +2083,7 @@
     </row>
     <row r="34" ht="28.5" spans="1:6">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
         <v>135</v>
@@ -2090,7 +2103,7 @@
     </row>
     <row r="35" ht="28.5" spans="1:6">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
         <v>139</v>
@@ -2110,7 +2123,7 @@
     </row>
     <row r="36" ht="28.5" spans="1:6">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
         <v>143</v>
@@ -2126,6 +2139,26 @@
       </c>
       <c r="F36" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="37" ht="28.5" spans="1:6">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" t="s">
+        <v>150</v>
+      </c>
+      <c r="F37" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2133,10 +2166,11 @@
     <hyperlink ref="E8" r:id="rId1" display="https://i0.wp.com/www.thesun.co.uk/wp-content/uploads/2020/03/1a9990a8-2b5d-40ac-a727-2b3059715dca.jpg?crop=0px%2C27px%2C666px%2C666px&amp;resize=960%2C960&amp;ssl=1"/>
     <hyperlink ref="E9" r:id="rId2" display="https://i.pinimg.com/564x/dd/49/ec/dd49ec467f711f0eb4c0d60ea7acc6ac.jpg"/>
     <hyperlink ref="E3" r:id="rId3" display="https://thejewishvoice.com/wp-content/uploads/2019/03/Israel-Two-Iranians-article-pic-1.jpg"/>
-    <hyperlink ref="E12" r:id="rId4" display="https://alexpsd.ru/wp-content/uploads/2020/04/Belarus-passport-mini.jpg"/>
-    <hyperlink ref="D13" r:id="rId5" display="https://alexpsd.ru/product/belgium-passport/"/>
-    <hyperlink ref="E13" r:id="rId6" display="https://alexpsd.ru/wp-content/uploads/2020/04/Belgium-passport-mini.jpg"/>
-    <hyperlink ref="E22" r:id="rId7" display="https://alexpsd.ru/wp-content/uploads/2020/04/Ireland-passport-mini.jpg"/>
+    <hyperlink ref="E13" r:id="rId4" display="https://alexpsd.ru/wp-content/uploads/2020/04/Belarus-passport-mini.jpg"/>
+    <hyperlink ref="D14" r:id="rId5" display="https://alexpsd.ru/product/belgium-passport/"/>
+    <hyperlink ref="E14" r:id="rId6" display="https://alexpsd.ru/wp-content/uploads/2020/04/Belgium-passport-mini.jpg"/>
+    <hyperlink ref="E23" r:id="rId7" display="https://alexpsd.ru/wp-content/uploads/2020/04/Ireland-passport-mini.jpg"/>
+    <hyperlink ref="D12" r:id="rId8" display="https://www.pinterest.com/pin/663647695103952393/" tooltip="https://www.pinterest.com/pin/663647695103952393/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
